--- a/SystemDesign/MatriceDegliAccessiSDD.xlsx
+++ b/SystemDesign/MatriceDegliAccessiSDD.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniodelucia/Desktop/IS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deluu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4126AB2C-35AD-BC46-85B1-034B9397D410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDA84FC-F194-47A1-BE87-FE7A54D4929F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" xr2:uid="{F6030A24-8681-3249-834E-F62B99D94825}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F6030A24-8681-3249-834E-F62B99D94825}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,144 +34,232 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+  <si>
+    <t xml:space="preserve">                        Operazioni
+       Attori</t>
+  </si>
+  <si>
+    <t>AggiungerePunti</t>
+  </si>
+  <si>
+    <t>CreaCartaFedeltà</t>
+  </si>
+  <si>
+    <t>ModificarePassword</t>
+  </si>
+  <si>
+    <t>Registrazione</t>
+  </si>
+  <si>
+    <t>Authenticate</t>
+  </si>
+  <si>
+    <t>CompletareOrdine</t>
+  </si>
+  <si>
+    <t>VisualizzaOrdini</t>
+  </si>
+  <si>
+    <t>CreaSpedizione</t>
+  </si>
+  <si>
+    <t>VisualizzareProdotto</t>
+  </si>
+  <si>
+    <t>addToBasket</t>
+  </si>
+  <si>
+    <t>EffettuareUnaRecensione</t>
+  </si>
+  <si>
+    <t>VisualizzareRecensione</t>
+  </si>
+  <si>
+    <t>FornituraProdotto</t>
+  </si>
+  <si>
+    <t>AggiornaQuantita</t>
+  </si>
+  <si>
+    <t>FornituraDLC</t>
+  </si>
+  <si>
+    <t>FornituraAbbonamento</t>
+  </si>
+  <si>
+    <t>FornituraConsole</t>
+  </si>
+  <si>
+    <t>FornituraVideogioco</t>
+  </si>
+  <si>
+    <t>Utente autenticato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Utente visitatore</t>
+  </si>
+  <si>
+    <t>Gestore magazzino</t>
+  </si>
   <si>
     <t>Gestore degli ordini</t>
   </si>
   <si>
-    <t>Gestore magazzino</t>
-  </si>
-  <si>
-    <t>Utente visitatore</t>
-  </si>
-  <si>
-    <t>Utente autenticato</t>
-  </si>
-  <si>
-    <t>Carta di credito</t>
-  </si>
-  <si>
-    <t>Carta fedeltà</t>
-  </si>
-  <si>
-    <t>Cliente</t>
-  </si>
-  <si>
-    <t>Ordine</t>
-  </si>
-  <si>
-    <t>Prodotto</t>
-  </si>
-  <si>
-    <t>Magazzino</t>
-  </si>
-  <si>
-    <t>Fornitore</t>
-  </si>
-  <si>
-    <t>Gestore</t>
-  </si>
-  <si>
-    <t>DLC</t>
-  </si>
-  <si>
-    <t>Abbonamento</t>
-  </si>
-  <si>
-    <t>Console</t>
-  </si>
-  <si>
-    <t>Videogioco</t>
-  </si>
-  <si>
-    <t>Sfotware house</t>
-  </si>
-  <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>Corriere</t>
-  </si>
-  <si>
-    <t>ModificaDatiCarta() VisualizzazioneCodiceCarta()</t>
-  </si>
-  <si>
-    <t>ModificarePassword()</t>
-  </si>
-  <si>
-    <t>CreaSpedizione()</t>
-  </si>
-  <si>
-    <t>CompletareOrdine() VisualizzaOrdini()</t>
-  </si>
-  <si>
-    <t>VisualizzareProdotto() addToBasket()</t>
-  </si>
-  <si>
-    <t>Registrazione()      Authenticate()</t>
-  </si>
-  <si>
-    <t>VisualizzazionePuntiCarta() AggiungerePunti()</t>
-  </si>
-  <si>
-    <t>InserireDati()</t>
-  </si>
-  <si>
-    <t>FornituraProdotto()
-AggiornaQuantità()</t>
-  </si>
-  <si>
-    <t>CreaCartaFedeltà()</t>
-  </si>
-  <si>
-    <t>controlloDisponibilitàProdotti()</t>
-  </si>
-  <si>
-    <t>controlloCapacità()</t>
-  </si>
-  <si>
-    <t>VisualizzaFornitori()</t>
-  </si>
-  <si>
-    <t>Authenticate()</t>
-  </si>
-  <si>
-    <t>VisualizzareProdotto() addToBasket()           EffettuareUnaRecensione()
-VisualizzareRecensione()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VisualizzazioneInformazioni()
+    <t>VisualizzazioneCodiceCartaDiCredito</t>
+  </si>
+  <si>
+    <t>ModificaDatiCartaDiCredito</t>
+  </si>
+  <si>
+    <t>VisualizzazionePuntiCartaFedeltà</t>
+  </si>
+  <si>
+    <t>CreazioneDatiCartaDiCredito</t>
+  </si>
+  <si>
+    <t>ModificaProfilo_Control
+CartaDiCredito_Manager
+PaginaPersonale_Boundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CartaDiCredito_Manager
+PaginaPersonale_Boundary</t>
+  </si>
+  <si>
+    <t>Registrazione_Control
+Registrazione_Boundary
+CartaDiCredito_Manager</t>
+  </si>
+  <si>
+    <t>PaginaPersonale_Boundary
+CartaFedelta_Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CartaFedelta_Manager
 </t>
   </si>
   <si>
-    <t>FornituraDLC()</t>
-  </si>
-  <si>
-    <t>FornituraAbbonamento()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FornituraConsole()
+    <t>Registrazione_Control
+Registrazione_Boundary
+CartaFedelta_Manager</t>
+  </si>
+  <si>
+    <t>ModificaProfilo_Control
+PaginaPersonale_Boundary
+Utente_Manager</t>
+  </si>
+  <si>
+    <t>Utente_Manager
+Registrazione_Control
+Registrazione_Boundary
+CartaFedeltà_Manager
+CartaDiCredito_Manager</t>
+  </si>
+  <si>
+    <t>Utente_Manager
+Login_Control
+Login_Boundary</t>
+  </si>
+  <si>
+    <t>Utente_Manager
+LoginGestore_Control
+LoginGestore_Boundary</t>
+  </si>
+  <si>
+    <t>Acquisto_Control
+PaginaCarrello_Boundary
+Magazzino_Manager
+Ordine_Manager
+OrdineRiguardaProdotti_Manager
+CartaFedeltà_Manager
+Carrello</t>
+  </si>
+  <si>
+    <t>PaginaOrdine_Boundary
+Ordine_Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GestioneOrdini_Control
+Spedizione_Manager
+Ordine_Manager
+Ordini_Boundary
 </t>
   </si>
   <si>
-    <t>FornituraVideogioco()</t>
-  </si>
-  <si>
-    <t>VIsualizzaSoftwarehouse()</t>
-  </si>
-  <si>
-    <t>VisualizzaCategoria()</t>
-  </si>
-  <si>
-    <t>VisualizzaCorriere()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        Oggetti
-       Attori</t>
-  </si>
-  <si>
     <t xml:space="preserve">
-VisualizzaCorriere()</t>
+Prodotto_Manager
+PaginaProdotto_Boundary</t>
+  </si>
+  <si>
+    <t>ProdottoNelCarrello_Control
+Prodotto_Manager
+Carrello
+PaginaProdotto_Boundary</t>
+  </si>
+  <si>
+    <t>PaginaProdotto_Control
+Prodotto_Manager
+Recensione_Manager
+PaginaProdotto_Boundary</t>
+  </si>
+  <si>
+    <t>PaginaProdotto_Boundary
+Prodotto_Manager
+Recensione_Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prodotto_Manager
+Magazzino_Manager
+InserimentoProdotto_Control
+FornituraNuovoProdotto_Boundary
+</t>
+  </si>
+  <si>
+    <t>Magazzino_Manager
+RifornituraProdottoEsistente_Control
+PaginaElencoProdotti_Boundary</t>
+  </si>
+  <si>
+    <t>Prodotto_Manager
+Magazzino_Manager
+DLC_Manager</t>
+  </si>
+  <si>
+    <t>Prodotto_Manager
+Magazzino_Manager
+Abbonamento_Manager</t>
+  </si>
+  <si>
+    <t>Prodotto_Manager
+Magazzino_Manager
+Console_Manager</t>
+  </si>
+  <si>
+    <t>Prodotto_Manager
+Magazzino_Manager
+Videogioco_Manager</t>
+  </si>
+  <si>
+    <t>RicercaPerCategoria</t>
+  </si>
+  <si>
+    <t>Categoria_Manager
+RicercaCategoria_Control
+SearchCategoryPage_Boundary</t>
+  </si>
+  <si>
+    <t>RicercaPerNome</t>
+  </si>
+  <si>
+    <t>SearchNomePage_Bounday
+RicercaNome_Control
+Prodotto_Manager</t>
   </si>
 </sst>
 </file>
@@ -179,7 +267,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="00000"/>
+    <numFmt numFmtId="164" formatCode="00000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -230,7 +318,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -300,7 +388,54 @@
         <color rgb="FFFF0000"/>
       </diagonal>
     </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color rgb="FFFF0000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
         <color theme="1"/>
       </left>
@@ -313,26 +448,30 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="thin">
+        <color rgb="FFFF0000"/>
+      </diagonal>
     </border>
-    <border>
+    <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="thin">
+        <color rgb="FFFF0000"/>
+      </diagonal>
     </border>
-    <border diagonalDown="1">
+    <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
@@ -344,22 +483,15 @@
         <color indexed="64"/>
       </bottom>
       <diagonal style="thin">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
       </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -378,27 +510,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -713,257 +871,576 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EF57CD-772D-D043-8A7D-4BF5A98A5827}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" customWidth="1"/>
-    <col min="8" max="8" width="28.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" customWidth="1"/>
-    <col min="10" max="10" width="25.33203125" customWidth="1"/>
-    <col min="11" max="11" width="25.1640625" customWidth="1"/>
-    <col min="12" max="12" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.875" customWidth="1"/>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="3" max="3" width="31.25" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
+    <col min="5" max="5" width="27.875" customWidth="1"/>
+    <col min="6" max="6" width="24.125" customWidth="1"/>
+    <col min="7" max="7" width="28.625" customWidth="1"/>
+    <col min="8" max="8" width="28.375" customWidth="1"/>
+    <col min="9" max="9" width="22.375" customWidth="1"/>
+    <col min="10" max="10" width="25.375" customWidth="1"/>
+    <col min="11" max="11" width="30.375" customWidth="1"/>
+    <col min="12" max="12" width="26.625" customWidth="1"/>
     <col min="13" max="13" width="27" customWidth="1"/>
     <col min="14" max="14" width="24.5" customWidth="1"/>
-    <col min="15" max="15" width="17.83203125" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" customWidth="1"/>
+    <col min="15" max="15" width="25" customWidth="1"/>
+    <col min="16" max="16" width="23" customWidth="1"/>
+    <col min="17" max="17" width="23.75" customWidth="1"/>
+    <col min="18" max="18" width="31.75" customWidth="1"/>
+    <col min="19" max="19" width="33.625" customWidth="1"/>
+    <col min="20" max="20" width="26.375" customWidth="1"/>
+    <col min="21" max="21" width="25.375" customWidth="1"/>
+    <col min="22" max="22" width="25.75" customWidth="1"/>
+    <col min="23" max="23" width="26.375" customWidth="1"/>
+    <col min="24" max="24" width="27.75" customWidth="1"/>
+    <col min="25" max="25" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:25" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="P2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" ht="73" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    <row r="3" spans="1:25" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="L3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="22"/>
+    </row>
+    <row r="5" spans="1:25" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-    </row>
-    <row r="3" spans="1:20" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-    </row>
-    <row r="4" spans="1:20" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-    </row>
-    <row r="5" spans="1:20" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010042760EE60954914DA5DE02C41FD7020A" ma:contentTypeVersion="12" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="69a1f85b63a931864f332a0081cd53c0">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4da17cf3-c9cd-47d8-899d-72f9080b07f5" xmlns:ns3="16bc1297-10f1-43c0-9104-6b0d8f3824fb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2348ad202822d7e6b871c1093b428941" ns2:_="" ns3:_="">
+    <xsd:import namespace="4da17cf3-c9cd-47d8-899d-72f9080b07f5"/>
+    <xsd:import namespace="16bc1297-10f1-43c0-9104-6b0d8f3824fb"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4da17cf3-c9cd-47d8-899d-72f9080b07f5" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="16bc1297-10f1-43c0-9104-6b0d8f3824fb" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB0163E1-2300-4063-980F-41CE606E1B79}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43B8EF90-589E-4CCC-BB73-70D18E8E1CB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4da17cf3-c9cd-47d8-899d-72f9080b07f5"/>
+    <ds:schemaRef ds:uri="16bc1297-10f1-43c0-9104-6b0d8f3824fb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42D751B6-84A3-402F-93B3-DB75964A9C74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SystemDesign/MatriceDegliAccessiSDD.xlsx
+++ b/SystemDesign/MatriceDegliAccessiSDD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deluu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocco\Desktop\UNI\IS\progetto\SDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDA84FC-F194-47A1-BE87-FE7A54D4929F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81FE280-1C62-468D-AE0E-CE3F26D3B5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F6030A24-8681-3249-834E-F62B99D94825}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F6030A24-8681-3249-834E-F62B99D94825}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -94,14 +94,8 @@
     <t>FornituraVideogioco</t>
   </si>
   <si>
-    <t>Utente autenticato</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>Utente visitatore</t>
   </si>
   <si>
     <t>Gestore magazzino</t>
@@ -260,6 +254,12 @@
     <t>SearchNomePage_Bounday
 RicercaNome_Control
 Prodotto_Manager</t>
+  </si>
+  <si>
+    <t>Utente [autenticato]</t>
+  </si>
+  <si>
+    <t>Utente [non autenticato]</t>
   </si>
 </sst>
 </file>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EF57CD-772D-D043-8A7D-4BF5A98A5827}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -911,16 +911,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -977,55 +977,55 @@
         <v>18</v>
       </c>
       <c r="X1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" s="21" t="s">
         <v>51</v>
-      </c>
-      <c r="Y1" s="21" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>44</v>
       </c>
       <c r="R2" s="19"/>
       <c r="S2" s="19"/>
@@ -1034,49 +1034,49 @@
       <c r="V2" s="19"/>
       <c r="W2" s="19"/>
       <c r="X2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="16"/>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="7"/>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N3" s="7"/>
       <c r="O3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P3" s="13"/>
       <c r="Q3" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R3" s="19"/>
       <c r="S3" s="19"/>
@@ -1085,15 +1085,15 @@
       <c r="V3" s="19"/>
       <c r="W3" s="19"/>
       <c r="X3" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
@@ -1104,11 +1104,11 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
@@ -1116,29 +1116,29 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="19"/>
       <c r="R4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="U4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="T4" s="14" t="s">
+      <c r="V4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="U4" s="14" t="s">
+      <c r="W4" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="V4" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="W4" s="14" t="s">
-        <v>50</v>
       </c>
       <c r="X4" s="19"/>
       <c r="Y4" s="22"/>
     </row>
     <row r="5" spans="1:25" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
@@ -1149,17 +1149,17 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="8"/>
       <c r="M5" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="19"/>
       <c r="R5" s="19"/>
@@ -1178,9 +1178,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1401,19 +1404,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB0163E1-2300-4063-980F-41CE606E1B79}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42D751B6-84A3-402F-93B3-DB75964A9C74}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1438,9 +1437,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42D751B6-84A3-402F-93B3-DB75964A9C74}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB0163E1-2300-4063-980F-41CE606E1B79}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>